--- a/DataEngine - UA.xlsx
+++ b/DataEngine - UA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="249">
   <si>
     <t>ID TestScenario</t>
   </si>
@@ -761,6 +761,15 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>07/12/2020 20:47:02</t>
   </si>
 </sst>
 </file>
@@ -814,7 +823,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="57">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -885,11 +894,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="40"/>
       </patternFill>
     </fill>
@@ -915,7 +919,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="40"/>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -936,136 +950,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -1149,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1223,24 +1107,13 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2909,23 +2782,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="11" width="26.5703125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="19.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.7265625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="11" width="26.54296875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="11" width="24.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="23.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="11" width="24.26953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="33.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="23.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -2950,7 +2823,7 @@
       <c r="H1" s="4"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="6"/>
       <c r="B2" s="12" t="s">
         <v>163</v>
@@ -2962,7 +2835,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>225</v>
       </c>
@@ -2980,11 +2853,11 @@
       <c r="G3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="69" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="55" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>225</v>
       </c>
@@ -3004,11 +2877,11 @@
         <v>88</v>
       </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="56" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>225</v>
       </c>
@@ -3030,11 +2903,11 @@
       <c r="G5" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="55" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>225</v>
       </c>
@@ -3056,11 +2929,11 @@
       <c r="G6" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="40" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>225</v>
       </c>
@@ -3080,11 +2953,11 @@
         <v>17</v>
       </c>
       <c r="G7" s="17"/>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="41" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>225</v>
       </c>
@@ -3100,11 +2973,11 @@
         <v>38</v>
       </c>
       <c r="G8" s="17"/>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="42" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>225</v>
       </c>
@@ -3124,11 +2997,11 @@
         <v>17</v>
       </c>
       <c r="G9" s="17"/>
-      <c r="H9" t="s" s="59">
+      <c r="H9" s="43" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>225</v>
       </c>
@@ -3148,11 +3021,11 @@
         <v>62</v>
       </c>
       <c r="G10" s="24"/>
-      <c r="H10" t="s" s="60">
+      <c r="H10" s="44" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>225</v>
       </c>
@@ -3174,11 +3047,11 @@
       <c r="G11" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="H11" t="s" s="61">
+      <c r="H11" s="45" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>225</v>
       </c>
@@ -3200,11 +3073,11 @@
       <c r="G12" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="H12" t="s" s="62">
+      <c r="H12" s="46" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>225</v>
       </c>
@@ -3224,11 +3097,11 @@
         <v>17</v>
       </c>
       <c r="G13" s="17"/>
-      <c r="H13" t="s" s="63">
+      <c r="H13" s="47" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>225</v>
       </c>
@@ -3244,11 +3117,11 @@
         <v>38</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" t="s" s="64">
+      <c r="H14" s="48" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>225</v>
       </c>
@@ -3268,11 +3141,11 @@
         <v>17</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" t="s" s="65">
+      <c r="H15" s="49" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>225</v>
       </c>
@@ -3288,11 +3161,11 @@
         <v>240</v>
       </c>
       <c r="G16" s="17"/>
-      <c r="H16" t="s" s="66">
+      <c r="H16" s="50" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>225</v>
       </c>
@@ -3312,11 +3185,11 @@
         <v>17</v>
       </c>
       <c r="G17" s="17"/>
-      <c r="H17" t="s" s="67">
+      <c r="H17" s="51" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>225</v>
       </c>
@@ -3334,7 +3207,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="37"/>
     </row>
-    <row r="19" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -3343,7 +3216,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
@@ -3352,7 +3225,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -3361,7 +3234,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -3370,7 +3243,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -3379,7 +3252,7 @@
       <c r="G23" s="17"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>225</v>
       </c>
@@ -3397,7 +3270,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>225</v>
       </c>
@@ -3419,7 +3292,7 @@
       <c r="G25" s="17"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>225</v>
       </c>
@@ -3441,7 +3314,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>225</v>
       </c>
@@ -3459,7 +3332,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>225</v>
       </c>
@@ -3481,7 +3354,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>225</v>
       </c>
@@ -3499,7 +3372,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>225</v>
       </c>
@@ -3521,7 +3394,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>225</v>
       </c>
@@ -3543,7 +3416,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>225</v>
       </c>
@@ -3561,7 +3434,7 @@
       <c r="G32" s="17"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>225</v>
       </c>
@@ -3585,7 +3458,7 @@
       </c>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>225</v>
       </c>
@@ -3603,7 +3476,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>225</v>
       </c>
@@ -3625,7 +3498,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>225</v>
       </c>
@@ -3643,7 +3516,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>225</v>
       </c>
@@ -3665,7 +3538,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>225</v>
       </c>
@@ -3683,7 +3556,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>225</v>
       </c>
@@ -3705,7 +3578,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>225</v>
       </c>
@@ -3727,7 +3600,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>225</v>
       </c>
@@ -3744,7 +3617,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
         <v>225</v>
       </c>
@@ -3762,7 +3635,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>225</v>
       </c>
@@ -3786,7 +3659,7 @@
       </c>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>225</v>
       </c>
@@ -3804,7 +3677,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
         <v>225</v>
       </c>
@@ -3826,7 +3699,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
         <v>225</v>
       </c>
@@ -3848,7 +3721,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>225</v>
       </c>
@@ -3870,7 +3743,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
         <v>225</v>
       </c>
@@ -3888,7 +3761,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
         <v>225</v>
       </c>
@@ -3910,7 +3783,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>225</v>
       </c>
@@ -3928,7 +3801,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
         <v>225</v>
       </c>
@@ -3950,7 +3823,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
         <v>225</v>
       </c>
@@ -3967,7 +3840,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
         <v>225</v>
       </c>
@@ -3985,7 +3858,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
         <v>225</v>
       </c>
@@ -4007,7 +3880,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
         <v>225</v>
       </c>
@@ -4029,7 +3902,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>225</v>
       </c>
@@ -4047,7 +3920,7 @@
       <c r="G56" s="28"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
         <v>225</v>
       </c>
@@ -4069,7 +3942,7 @@
       <c r="G57" s="28"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
         <v>225</v>
       </c>
@@ -4091,7 +3964,7 @@
       <c r="G58" s="28"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
         <v>225</v>
       </c>
@@ -4109,7 +3982,7 @@
       <c r="G59" s="17"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
         <v>225</v>
       </c>
@@ -4127,7 +4000,7 @@
       <c r="G60" s="28"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
         <v>225</v>
       </c>
@@ -4149,7 +4022,7 @@
       <c r="G61" s="17"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
         <v>225</v>
       </c>
@@ -4167,7 +4040,7 @@
       <c r="G62" s="17"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="15" t="s">
         <v>225</v>
       </c>
@@ -4189,7 +4062,7 @@
       <c r="G63" s="17"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
         <v>225</v>
       </c>
@@ -4207,7 +4080,7 @@
       <c r="G64" s="17"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="s">
         <v>225</v>
       </c>
@@ -4229,7 +4102,7 @@
       <c r="G65" s="17"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
         <v>225</v>
       </c>
@@ -4247,7 +4120,7 @@
       <c r="G66" s="28"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
         <v>225</v>
       </c>
@@ -4269,7 +4142,7 @@
       <c r="G67" s="17"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
         <v>225</v>
       </c>
@@ -4287,7 +4160,7 @@
       <c r="G68" s="28"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
         <v>225</v>
       </c>
@@ -4309,7 +4182,7 @@
       <c r="G69" s="17"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
         <v>225</v>
       </c>
@@ -4327,7 +4200,7 @@
       <c r="G70" s="17"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="s">
         <v>225</v>
       </c>
@@ -4349,7 +4222,7 @@
       <c r="G71" s="17"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="15" t="s">
         <v>225</v>
       </c>
@@ -4367,7 +4240,7 @@
       <c r="G72" s="17"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
         <v>225</v>
       </c>
@@ -4389,7 +4262,7 @@
       <c r="G73" s="24"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="15" t="s">
         <v>225</v>
       </c>
@@ -4411,7 +4284,7 @@
       <c r="G74" s="28"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="15" t="s">
         <v>225</v>
       </c>
@@ -4429,7 +4302,7 @@
       <c r="G75" s="28"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="15" t="s">
         <v>225</v>
       </c>
@@ -4451,7 +4324,7 @@
       <c r="G76" s="17"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
         <v>225</v>
       </c>
@@ -4469,7 +4342,7 @@
       <c r="G77" s="17"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="15" t="s">
         <v>225</v>
       </c>
@@ -4491,7 +4364,7 @@
       <c r="G78" s="17"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
         <v>225</v>
       </c>
@@ -4509,7 +4382,7 @@
       <c r="G79" s="28"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="s">
         <v>225</v>
       </c>
@@ -4531,7 +4404,7 @@
       <c r="G80" s="28"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
         <v>225</v>
       </c>
@@ -4553,7 +4426,7 @@
       <c r="G81" s="28"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="15" t="s">
         <v>225</v>
       </c>
@@ -4575,7 +4448,7 @@
       <c r="G82" s="28"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
         <v>225</v>
       </c>
@@ -4593,7 +4466,7 @@
       <c r="G83" s="28"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
         <v>225</v>
       </c>
@@ -4615,7 +4488,7 @@
       <c r="G84" s="28"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
         <v>225</v>
       </c>
@@ -4637,7 +4510,7 @@
       <c r="G85" s="17"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
         <v>225</v>
       </c>
@@ -4655,7 +4528,7 @@
       <c r="G86" s="17"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
         <v>225</v>
       </c>
@@ -4673,7 +4546,7 @@
       <c r="G87" s="17"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
         <v>225</v>
       </c>
@@ -4695,7 +4568,7 @@
       <c r="G88" s="17"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="s">
         <v>225</v>
       </c>
@@ -4719,7 +4592,7 @@
       </c>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="s">
         <v>225</v>
       </c>
@@ -4737,7 +4610,7 @@
       <c r="G90" s="17"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
         <v>225</v>
       </c>
@@ -4759,7 +4632,7 @@
       <c r="G91" s="17"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="15" t="s">
         <v>225</v>
       </c>
@@ -4777,7 +4650,7 @@
       <c r="G92" s="17"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="15" t="s">
         <v>225</v>
       </c>
@@ -4872,21 +4745,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.1796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -4899,8 +4772,11 @@
       <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>225</v>
       </c>
@@ -4910,107 +4786,113 @@
       <c r="C2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="58" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" t="s" s="59">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="33"/>
       <c r="D4" s="34"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="33"/>
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="33"/>
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -5030,15 +4912,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.54296875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="39.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -5052,7 +4934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -5066,7 +4948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -5080,7 +4962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>130</v>
       </c>
@@ -5088,7 +4970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>131</v>
       </c>
@@ -5096,7 +4978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>132</v>
       </c>
@@ -5104,7 +4986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>229</v>
       </c>
@@ -5112,7 +4994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>230</v>
       </c>
@@ -5120,7 +5002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>233</v>
       </c>
@@ -5128,7 +5010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>236</v>
       </c>
@@ -5136,7 +5018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>238</v>
       </c>
@@ -5144,7 +5026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>243</v>
       </c>
@@ -5152,7 +5034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>244</v>
       </c>
@@ -5160,639 +5042,639 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C28" s="3"/>
       <c r="D28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C35" s="3"/>
       <c r="D35" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C39" s="14"/>
       <c r="D39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C40" s="14"/>
       <c r="D40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C41" s="14"/>
       <c r="D41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C43" s="3"/>
       <c r="D43" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D48" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C50" s="3"/>
       <c r="D50" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D51" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D52" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D54" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D59" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D60" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D62" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D63" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D64" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D65" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D66" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D70" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D71" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D72" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C73" s="11"/>
       <c r="D73" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D74" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D75" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D76" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D77" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D78" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D79" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C80" s="14"/>
       <c r="D80" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C81" s="14"/>
       <c r="D81" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C82" s="14"/>
       <c r="D82" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C83" s="14"/>
       <c r="D83" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C84" s="19"/>
       <c r="D84" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C85" s="19"/>
       <c r="D85" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C86" s="16"/>
       <c r="D86" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C87" s="16"/>
       <c r="D87" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C88" s="19"/>
       <c r="D88" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C89" s="14"/>
       <c r="D89" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C90" s="14"/>
       <c r="D90" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C91" s="14"/>
       <c r="D91" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C92" s="14"/>
       <c r="D92" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C93" s="19"/>
       <c r="D93" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C94" s="16"/>
       <c r="D94" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C95" s="16"/>
       <c r="D95" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C96" s="16"/>
       <c r="D96" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C97" s="16"/>
       <c r="D97" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C98" s="13"/>
       <c r="D98" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C99" s="16"/>
       <c r="D99" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C100" s="14"/>
       <c r="D100" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C101" s="13"/>
       <c r="D101" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C102" s="14"/>
       <c r="D102" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C103" s="14"/>
       <c r="D103" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C104" s="14"/>
       <c r="D104" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C105" s="14"/>
       <c r="D105" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C106" s="14"/>
       <c r="D106" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C107" s="14"/>
       <c r="D107" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C108" s="14"/>
       <c r="D108" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C109" s="14"/>
       <c r="D109" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C110" s="14"/>
       <c r="D110" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C111" s="14"/>
       <c r="D111" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C112" s="14"/>
       <c r="D112" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C113" s="14"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C114" s="14"/>
       <c r="D114" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C115" s="14"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C116" s="14"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C117" s="14"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C118" s="14"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C119" s="14"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C120" s="14"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C121" s="14"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C122" s="14"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C123" s="14"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C124" s="14"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C125" s="14"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C126" s="14"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C127" s="14"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C128" s="14"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C129" s="14"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C130" s="14"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C131" s="14"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C134" s="11"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C135" s="11"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C137" s="9"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C138" s="11"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C143" s="11"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C144" s="9"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C145" s="9"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C146" s="9"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C147" s="9"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C148" s="13"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C149" s="9"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C151" s="13"/>
     </row>
   </sheetData>
